--- a/Example/Excel/Hero.xlsx
+++ b/Example/Excel/Hero.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A777E74-BADF-44BB-B8CE-DC80F4ADF22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Hero" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -381,10 +380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,14 +429,22 @@
   </si>
   <si>
     <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#paramName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,7 +899,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -971,23 +974,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1023,23 +1009,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1215,16 +1184,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="52"/>
+    <col min="1" max="1" width="19.625" style="52" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="14.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="2" customWidth="1"/>
@@ -1238,9 +1207,9 @@
     <col min="17" max="18" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20">
       <c r="A1" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="51"/>
       <c r="C1" s="51"/>
@@ -1262,9 +1231,9 @@
       <c r="S1" s="52"/>
       <c r="T1" s="52"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="52" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B2" s="51" t="s">
         <v>83</v>
@@ -1310,9 +1279,9 @@
       <c r="S2" s="53"/>
       <c r="T2" s="53"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="52" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>0</v>
@@ -1358,18 +1327,18 @@
       <c r="S3" s="51"/>
       <c r="T3" s="51"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="B4" s="51">
         <v>0</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="51">
         <v>0</v>
@@ -1403,15 +1372,15 @@
       <c r="S4" s="52"/>
       <c r="T4" s="52"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="B5" s="51">
         <v>1</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="51" t="s">
         <v>7</v>
@@ -1448,15 +1417,15 @@
       <c r="S5" s="52"/>
       <c r="T5" s="52"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="B6" s="51">
         <v>2</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="51" t="s">
         <v>7</v>
@@ -1493,15 +1462,15 @@
       <c r="S6" s="52"/>
       <c r="T6" s="52"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="B7" s="51">
         <v>3</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="51" t="s">
         <v>7</v>
@@ -1538,15 +1507,15 @@
       <c r="S7" s="52"/>
       <c r="T7" s="52"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="B8" s="51">
         <v>4</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="51" t="s">
         <v>7</v>
@@ -1583,15 +1552,15 @@
       <c r="S8" s="52"/>
       <c r="T8" s="52"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="B9" s="51">
         <v>5</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="51" t="s">
         <v>7</v>
@@ -1628,15 +1597,15 @@
       <c r="S9" s="52"/>
       <c r="T9" s="52"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="B10" s="51">
         <v>6</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="51" t="s">
         <v>9</v>
@@ -1673,15 +1642,15 @@
       <c r="S10" s="52"/>
       <c r="T10" s="52"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="B11" s="51">
         <v>7</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" s="51" t="s">
         <v>9</v>
@@ -1718,15 +1687,15 @@
       <c r="S11" s="52"/>
       <c r="T11" s="52"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="B12" s="51">
         <v>8</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" s="51" t="s">
         <v>9</v>
@@ -1763,15 +1732,15 @@
       <c r="S12" s="52"/>
       <c r="T12" s="52"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="B13" s="51">
         <v>9</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="51" t="s">
         <v>9</v>
@@ -1808,15 +1777,15 @@
       <c r="S13" s="52"/>
       <c r="T13" s="52"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="B14" s="51">
         <v>10</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>9</v>
@@ -1853,15 +1822,15 @@
       <c r="S14" s="52"/>
       <c r="T14" s="52"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="B15" s="51">
         <v>11</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>9</v>
@@ -1898,15 +1867,15 @@
       <c r="S15" s="52"/>
       <c r="T15" s="52"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="B16" s="51">
         <v>12</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" s="51" t="s">
         <v>8</v>
@@ -1943,15 +1912,15 @@
       <c r="S16" s="52"/>
       <c r="T16" s="52"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:20">
       <c r="B17" s="51">
         <v>13</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>8</v>
@@ -1988,15 +1957,15 @@
       <c r="S17" s="52"/>
       <c r="T17" s="52"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:20">
       <c r="B18" s="51">
         <v>14</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>8</v>
@@ -2033,15 +2002,15 @@
       <c r="S18" s="52"/>
       <c r="T18" s="52"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:20">
       <c r="B19" s="51">
         <v>15</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>8</v>
@@ -2078,15 +2047,15 @@
       <c r="S19" s="52"/>
       <c r="T19" s="52"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:20">
       <c r="B20" s="51">
         <v>16</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>8</v>
@@ -2123,15 +2092,15 @@
       <c r="S20" s="52"/>
       <c r="T20" s="52"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:20">
       <c r="B21" s="51">
         <v>17</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="51" t="s">
         <v>8</v>
@@ -2176,14 +2145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
@@ -2193,7 +2162,7 @@
     <col min="6" max="17" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19">
       <c r="H1" s="18" t="s">
         <v>41</v>
       </c>
@@ -2240,7 +2209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19">
       <c r="A2" s="31" t="s">
         <v>20</v>
       </c>
@@ -2292,7 +2261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19">
       <c r="A3" s="29">
         <v>0</v>
       </c>
@@ -2344,7 +2313,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19">
       <c r="A4" s="29">
         <v>1</v>
       </c>
@@ -2398,7 +2367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19">
       <c r="A5" s="29">
         <v>2</v>
       </c>
@@ -2450,7 +2419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19">
       <c r="A6" s="29">
         <v>3</v>
       </c>
@@ -2504,7 +2473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19">
       <c r="A7" s="29">
         <v>4</v>
       </c>
@@ -2556,7 +2525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -2608,7 +2577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -2660,7 +2629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19">
       <c r="A10" s="30">
         <v>7</v>
       </c>
@@ -2714,10 +2683,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19">
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19">
       <c r="L12" s="35"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
@@ -2725,7 +2694,7 @@
       <c r="P12" s="35"/>
       <c r="Q12" s="35"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19">
       <c r="A13" s="32" t="s">
         <v>32</v>
       </c>
@@ -2775,7 +2744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19">
       <c r="A14" s="15">
         <v>0</v>
       </c>
@@ -2827,7 +2796,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -2874,7 +2843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19">
       <c r="A16" s="15">
         <v>2</v>
       </c>
@@ -2926,7 +2895,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17">
       <c r="A17" s="15">
         <v>3</v>
       </c>
@@ -2961,7 +2930,7 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17">
       <c r="A18" s="7">
         <v>4</v>
       </c>
@@ -2990,7 +2959,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17">
       <c r="A21" s="12" t="s">
         <v>45</v>
       </c>
@@ -2998,7 +2967,7 @@
       <c r="C21" s="11"/>
       <c r="K21" s="34"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -3009,7 +2978,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="15" t="s">
         <v>48</v>
       </c>
@@ -3026,7 +2995,7 @@
       <c r="H23" s="48"/>
       <c r="I23" s="48"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="15" t="s">
         <v>49</v>
       </c>
@@ -3043,7 +3012,7 @@
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="7" t="s">
         <v>54</v>
       </c>
@@ -3059,7 +3028,7 @@
       <c r="H25" s="48"/>
       <c r="I25" s="48"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" s="54" t="s">
         <v>82</v>
       </c>
@@ -3067,13 +3036,13 @@
       <c r="C27" s="56"/>
       <c r="D27" s="49"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17">
       <c r="A28" s="57"/>
       <c r="B28" s="58"/>
       <c r="C28" s="59"/>
       <c r="D28" s="49"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17">
       <c r="A29" s="60"/>
       <c r="B29" s="61"/>
       <c r="C29" s="62"/>
